--- a/default/example2.xlsx
+++ b/default/example2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\System design studio\OCR\default\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0731FBC0-594D-4C7C-819D-BC50C9D8E1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8B36CE-EB62-4A8F-B77B-4EE9F304A5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3996" yWindow="4704" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,152 +20,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
-  <si>
-    <t>BunkerVessel: Recelving Vesset: Date: Port DeliveryLocatin</t>
-  </si>
-  <si>
-    <t>Pilot on board</t>
-  </si>
-  <si>
-    <t>2024-09-07 16:18</t>
-  </si>
-  <si>
-    <t>2024-09-0715:18</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>All equipment rigged and ready</t>
   </si>
   <si>
-    <t>2024-09-0716:36</t>
-  </si>
-  <si>
-    <t>2024-09-0716:00</t>
-  </si>
-  <si>
     <t>NOR tendered by RV</t>
   </si>
   <si>
-    <t>2024-09-07 16:36</t>
-  </si>
-  <si>
-    <t>2024-09-0716:18LT</t>
-  </si>
-  <si>
-    <t>Pilot away</t>
-  </si>
-  <si>
-    <t>2024-09-07 16:44</t>
-  </si>
-  <si>
-    <t>2024-09-0717:11LT</t>
-  </si>
-  <si>
-    <t>2024-09-0717:30</t>
-  </si>
-  <si>
-    <t>2024-09-0717:27LT</t>
-  </si>
-  <si>
-    <t>2024-09-0717:43</t>
-  </si>
-  <si>
-    <t>2024-09-0717:44LT</t>
-  </si>
-  <si>
-    <t>2024-09-0717:54</t>
-  </si>
-  <si>
-    <t>IAPH checklist parts C &amp; D</t>
-  </si>
-  <si>
-    <t>2024m9-0717:05L</t>
-  </si>
-  <si>
     <t>Warm ESD test</t>
   </si>
   <si>
-    <t>2024-09-0718:12LT</t>
-  </si>
-  <si>
-    <t>2024-09-0718:19L</t>
-  </si>
-  <si>
     <t>Opening CTS</t>
   </si>
   <si>
-    <t>2024-09-0717:56L</t>
-  </si>
-  <si>
-    <t>Hose(s)orarmandlines cool-down</t>
-  </si>
-  <si>
-    <t>Cold ESD tests/cold stroke test</t>
-  </si>
-  <si>
-    <t>2024-09-0720:08 LT</t>
-  </si>
-  <si>
-    <t>2024-09-0722:10L</t>
-  </si>
-  <si>
-    <t>Ramp-upbunkertransfer</t>
-  </si>
-  <si>
-    <t>2024-09-0720:14LT</t>
-  </si>
-  <si>
-    <t>2024-09-0720:48L</t>
-  </si>
-  <si>
-    <t>Bulk bunker transfer</t>
-  </si>
-  <si>
-    <t>2024-09-0720:48LT</t>
-  </si>
-  <si>
-    <t>2024-09-08 01:15L</t>
-  </si>
-  <si>
-    <t>Ramp-down bunker transfer</t>
-  </si>
-  <si>
-    <t>2024-09-0801:15LT</t>
-  </si>
-  <si>
-    <t>2024-09-0801:28L</t>
-  </si>
-  <si>
     <t>Draining of hose(s) or arm</t>
   </si>
   <si>
-    <t>2024-09-08 01:36LT</t>
-  </si>
-  <si>
-    <t>2024-09-0802:17L</t>
-  </si>
-  <si>
     <t>Hose(s) or arm purged</t>
   </si>
   <si>
-    <t>2024-09-0803:00LT</t>
-  </si>
-  <si>
-    <t>2024-09-0803:25L</t>
-  </si>
-  <si>
     <t>Closing CTS</t>
   </si>
   <si>
-    <t>2024-09-08 02:20LT</t>
-  </si>
-  <si>
-    <t>IAPH checklist part E</t>
-  </si>
-  <si>
-    <t>2024-09-0803:50L</t>
-  </si>
-  <si>
     <t>Hose(s) or arm disconnected</t>
   </si>
   <si>
@@ -178,15 +55,6 @@
     <t>Documentation completed</t>
   </si>
   <si>
-    <t>2024-09-08 03:50L</t>
-  </si>
-  <si>
-    <t>2024-09-08 00:34L</t>
-  </si>
-  <si>
-    <t>2024-09-08 04:20LT</t>
-  </si>
-  <si>
     <t>Started</t>
   </si>
   <si>
@@ -214,22 +82,163 @@
     <t>Unmooring from receiving vessel</t>
   </si>
   <si>
-    <t>2024-09-08 04:30L</t>
-  </si>
-  <si>
-    <t>2024-01-27 02.10 LT</t>
-  </si>
-  <si>
-    <t>2024-01-27 23.37 LT</t>
-  </si>
-  <si>
-    <t>2024-09-0718:55LT</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>Mooring to receiving vessel</t>
+    <t>LNG Bunker Vessel: FUELNG VENOSA Terminal: SLNG Terminal Berth: -- Date: 2025-04-06 Port: Singapore, Singapore</t>
+  </si>
+  <si>
+    <t>2025-03-24 08:24 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 08:38 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 08:52 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 08:53 LT</t>
+  </si>
+  <si>
+    <t>Mooring</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:00 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:08 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:29 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:37 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:30 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:38 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:52 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:00 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:02 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:32 LT</t>
+  </si>
+  <si>
+    <t>Ramp-up bunker transfer</t>
+  </si>
+  <si>
+    <t>Open BOG valve to shore</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:01 LT</t>
+  </si>
+  <si>
+    <t>Bulk  transfer</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:02 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:12 LT</t>
+  </si>
+  <si>
+    <t>Ramp-down until loading / discharge complete</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:44 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:29 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:47 LT</t>
+  </si>
+  <si>
+    <t>Close BOG valve to shore</t>
+  </si>
+  <si>
+    <t>2025-03-24 12:01 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 12:04 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 12:14 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 12:15 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 12:28 LT</t>
+  </si>
+  <si>
+    <t>Gangway landed</t>
+  </si>
+  <si>
+    <t>2025-03-24 12:56 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 13:01 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 13:46 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 13:33 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:14 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:02 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:26 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 11:11 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:37 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:13 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:28 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:13 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 09:07 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 08:15 LT</t>
+  </si>
+  <si>
+    <t>Pre-operations meeting</t>
+  </si>
+  <si>
+    <t>Post operation meeting</t>
+  </si>
+  <si>
+    <t>2025-03-24 12:31 LT</t>
+  </si>
+  <si>
+    <t>2025-03-24 12:46 LT</t>
+  </si>
+  <si>
+    <t>Hose(s) or arm and lines cool-down</t>
   </si>
 </sst>
 </file>
@@ -278,12 +287,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,338 +596,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="72" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>69</v>
+      <c r="A8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>122</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>364</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
+      <c r="A21" t="s">
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
